--- a/Results.xlsx
+++ b/Results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aye Phyu\Documents\Pynotebooks\Online_Social_Network_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7C77698F-4F60-420C-9584-32B9CEE340CF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25D9407D-546C-4087-92F8-359BFB7F19A4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{AC61FA24-0AD4-4B23-BF72-388EB5421245}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AC61FA24-0AD4-4B23-BF72-388EB5421245}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="9">
   <si>
     <t>A-Greedy</t>
   </si>
@@ -45,9 +45,6 @@
     <t>Facebook</t>
   </si>
   <si>
-    <t>PL</t>
-  </si>
-  <si>
     <t>F1</t>
   </si>
   <si>
@@ -57,7 +54,10 @@
     <t>F3</t>
   </si>
   <si>
-    <t>F3-0.5</t>
+    <t>PL-DIGG</t>
+  </si>
+  <si>
+    <t>46,70,80</t>
   </si>
 </sst>
 </file>
@@ -409,9 +409,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4707D720-E392-4C31-8174-5040D0C727F8}">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
@@ -461,64 +461,209 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
         <v>4</v>
       </c>
-      <c r="B10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" t="s">
-        <v>6</v>
-      </c>
       <c r="D10" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2</v>
       </c>
-      <c r="D11">
-        <v>304</v>
-      </c>
-      <c r="E11">
-        <v>16</v>
+      <c r="B11">
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>5</v>
       </c>
+      <c r="B12">
+        <v>11</v>
+      </c>
       <c r="D12">
-        <v>377</v>
+        <v>5</v>
+      </c>
+      <c r="E12" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>10</v>
       </c>
+      <c r="B13">
+        <v>31</v>
+      </c>
       <c r="D13">
-        <v>408</v>
+        <v>10</v>
+      </c>
+      <c r="E13">
+        <v>127</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>15</v>
       </c>
+      <c r="B14">
+        <v>53</v>
+      </c>
       <c r="D14">
-        <v>428</v>
+        <v>15</v>
+      </c>
+      <c r="E14">
+        <v>188</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>20</v>
       </c>
+      <c r="B15">
+        <v>87</v>
+      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>25</v>
+      </c>
+      <c r="B16">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" t="s">
+        <v>1</v>
+      </c>
+      <c r="E18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>2</v>
+      </c>
+      <c r="B19">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>5</v>
+      </c>
+      <c r="B20">
+        <v>504</v>
+      </c>
+      <c r="D20">
+        <v>5</v>
+      </c>
+      <c r="E20">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>10</v>
+      </c>
+      <c r="B21">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>7</v>
+      </c>
+      <c r="B26" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" t="s">
+        <v>1</v>
+      </c>
+      <c r="E26" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>2</v>
+      </c>
+      <c r="B27">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>5</v>
+      </c>
+      <c r="B28">
+        <v>377</v>
+      </c>
+      <c r="D28">
+        <v>5</v>
+      </c>
+      <c r="E28">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>10</v>
+      </c>
+      <c r="B29">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>15</v>
+      </c>
+      <c r="B30">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>20</v>
+      </c>
+      <c r="B31">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>25</v>
+      </c>
+      <c r="B32">
+        <v>494</v>
       </c>
     </row>
   </sheetData>

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aye Phyu\Documents\Pynotebooks\Online_Social_Network_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25D9407D-546C-4087-92F8-359BFB7F19A4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2BFEA6C-B56C-449C-82D2-37DDAA2E6B8C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AC61FA24-0AD4-4B23-BF72-388EB5421245}"/>
+    <workbookView xWindow="15780" yWindow="7230" windowWidth="21600" windowHeight="11385" xr2:uid="{AC61FA24-0AD4-4B23-BF72-388EB5421245}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="10">
   <si>
     <t>A-Greedy</t>
   </si>
@@ -57,20 +58,29 @@
     <t>PL-DIGG</t>
   </si>
   <si>
-    <t>46,70,80</t>
+    <t>with 0.1</t>
+  </si>
+  <si>
+    <t>Random</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Courier New"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -93,8 +103,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -409,15 +422,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4707D720-E392-4C31-8174-5040D0C727F8}">
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:AG33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="E10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -431,7 +444,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2</v>
       </c>
@@ -439,27 +452,27 @@
         <v>304</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -472,16 +485,61 @@
       <c r="E10" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F10" t="s">
+        <v>3</v>
+      </c>
+      <c r="G10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H10" t="s">
+        <v>9</v>
+      </c>
+      <c r="I10" t="s">
+        <v>7</v>
+      </c>
+      <c r="J10" t="s">
+        <v>4</v>
+      </c>
+      <c r="K10" t="s">
+        <v>1</v>
+      </c>
+      <c r="L10" t="s">
+        <v>4</v>
+      </c>
+      <c r="M10" t="s">
+        <v>3</v>
+      </c>
+      <c r="N10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2</v>
       </c>
       <c r="B11">
         <v>6</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E11">
+        <v>14</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+      <c r="G11" s="1">
+        <v>85</v>
+      </c>
+      <c r="I11">
+        <v>2</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="M11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>5</v>
       </c>
@@ -491,11 +549,35 @@
       <c r="D12">
         <v>5</v>
       </c>
-      <c r="E12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E12" s="1">
+        <v>46</v>
+      </c>
+      <c r="F12">
+        <v>5</v>
+      </c>
+      <c r="G12">
+        <v>245</v>
+      </c>
+      <c r="I12">
+        <v>5</v>
+      </c>
+      <c r="J12">
+        <v>6</v>
+      </c>
+      <c r="K12">
+        <v>5</v>
+      </c>
+      <c r="L12" s="1">
+        <v>6</v>
+      </c>
+      <c r="M12">
+        <v>5</v>
+      </c>
+      <c r="N12">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>10</v>
       </c>
@@ -506,10 +588,34 @@
         <v>10</v>
       </c>
       <c r="E13">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+      <c r="F13">
+        <v>10</v>
+      </c>
+      <c r="G13">
+        <v>265</v>
+      </c>
+      <c r="I13">
+        <v>10</v>
+      </c>
+      <c r="J13">
+        <v>9</v>
+      </c>
+      <c r="K13">
+        <v>10</v>
+      </c>
+      <c r="L13">
+        <v>9</v>
+      </c>
+      <c r="M13">
+        <v>10</v>
+      </c>
+      <c r="N13">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>15</v>
       </c>
@@ -520,85 +626,422 @@
         <v>15</v>
       </c>
       <c r="E14">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+      <c r="F14">
+        <v>15</v>
+      </c>
+      <c r="G14">
+        <v>277</v>
+      </c>
+      <c r="I14">
+        <v>15</v>
+      </c>
+      <c r="J14">
+        <v>12</v>
+      </c>
+      <c r="K14">
+        <v>15</v>
+      </c>
+      <c r="L14">
+        <v>12</v>
+      </c>
+      <c r="M14">
+        <v>15</v>
+      </c>
+      <c r="N14">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>20</v>
       </c>
       <c r="B15">
         <v>87</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E15">
+        <v>172</v>
+      </c>
+      <c r="F15">
+        <v>20</v>
+      </c>
+      <c r="G15">
+        <v>290</v>
+      </c>
+      <c r="I15">
+        <v>20</v>
+      </c>
+      <c r="J15">
+        <v>15</v>
+      </c>
+      <c r="K15">
+        <v>20</v>
+      </c>
+      <c r="L15">
+        <v>15</v>
+      </c>
+      <c r="M15">
+        <v>20</v>
+      </c>
+      <c r="N15">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>25</v>
       </c>
       <c r="B16">
         <v>121</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E16">
+        <v>188</v>
+      </c>
+      <c r="F16">
+        <v>25</v>
+      </c>
+      <c r="G16">
+        <v>300</v>
+      </c>
+      <c r="I16">
+        <v>25</v>
+      </c>
+      <c r="J16">
+        <v>18</v>
+      </c>
+      <c r="K16">
+        <v>25</v>
+      </c>
+      <c r="L16">
+        <v>18</v>
+      </c>
+      <c r="M16">
+        <v>25</v>
+      </c>
+      <c r="N16">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>30</v>
+      </c>
+      <c r="B17">
+        <v>124</v>
+      </c>
+      <c r="E17">
+        <v>192</v>
+      </c>
+      <c r="F17">
+        <v>30</v>
+      </c>
+      <c r="G17">
+        <v>305</v>
+      </c>
+      <c r="I17">
+        <v>30</v>
+      </c>
+      <c r="J17">
+        <v>21</v>
+      </c>
+      <c r="K17">
+        <v>30</v>
+      </c>
+      <c r="L17">
+        <v>21</v>
+      </c>
+      <c r="M17">
+        <v>30</v>
+      </c>
+      <c r="N17">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>7</v>
       </c>
       <c r="B18" t="s">
         <v>5</v>
       </c>
+      <c r="C18" t="s">
+        <v>8</v>
+      </c>
       <c r="D18" t="s">
         <v>1</v>
       </c>
       <c r="E18" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F18" t="s">
+        <v>3</v>
+      </c>
+      <c r="G18" t="s">
+        <v>5</v>
+      </c>
+      <c r="I18" t="s">
+        <v>7</v>
+      </c>
+      <c r="J18" t="s">
+        <v>5</v>
+      </c>
+      <c r="K18" t="s">
+        <v>1</v>
+      </c>
+      <c r="L18" t="s">
+        <v>5</v>
+      </c>
+      <c r="M18" t="s">
+        <v>3</v>
+      </c>
+      <c r="N18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2</v>
       </c>
       <c r="B19">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+        <v>792</v>
+      </c>
+      <c r="D19">
+        <v>2</v>
+      </c>
+      <c r="E19">
+        <v>1641</v>
+      </c>
+      <c r="F19">
+        <v>2</v>
+      </c>
+      <c r="G19">
+        <v>2965</v>
+      </c>
+      <c r="I19">
+        <v>2</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="M19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>5</v>
       </c>
       <c r="B20">
-        <v>504</v>
-      </c>
-      <c r="D20">
-        <v>5</v>
+        <v>801</v>
       </c>
       <c r="E20">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1648</v>
+      </c>
+      <c r="F20">
+        <v>5</v>
+      </c>
+      <c r="G20">
+        <v>2991</v>
+      </c>
+      <c r="I20">
+        <v>5</v>
+      </c>
+      <c r="J20">
+        <v>729</v>
+      </c>
+      <c r="K20">
+        <v>5</v>
+      </c>
+      <c r="L20">
+        <v>1224</v>
+      </c>
+      <c r="M20">
+        <v>5</v>
+      </c>
+      <c r="N20">
+        <v>2905</v>
+      </c>
+    </row>
+    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>10</v>
       </c>
       <c r="B21">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+        <v>823</v>
+      </c>
+      <c r="E21">
+        <v>1666</v>
+      </c>
+      <c r="F21">
+        <v>10</v>
+      </c>
+      <c r="G21">
+        <v>2999</v>
+      </c>
+      <c r="I21">
+        <v>10</v>
+      </c>
+      <c r="J21">
+        <v>763</v>
+      </c>
+      <c r="K21">
+        <v>10</v>
+      </c>
+      <c r="L21">
+        <v>1341</v>
+      </c>
+      <c r="M21">
+        <v>10</v>
+      </c>
+      <c r="N21">
+        <v>2934</v>
+      </c>
+    </row>
+    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>15</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <v>846</v>
+      </c>
+      <c r="E22">
+        <v>1682</v>
+      </c>
+      <c r="F22">
+        <v>15</v>
+      </c>
+      <c r="G22">
+        <v>3006</v>
+      </c>
+      <c r="I22">
+        <v>15</v>
+      </c>
+      <c r="J22">
+        <v>783</v>
+      </c>
+      <c r="K22">
+        <v>15</v>
+      </c>
+      <c r="L22">
+        <v>1332</v>
+      </c>
+      <c r="M22">
+        <v>15</v>
+      </c>
+      <c r="N22">
+        <v>2949</v>
+      </c>
+      <c r="AG22">
+        <v>3019</v>
+      </c>
+    </row>
+    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>20</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <v>878</v>
+      </c>
+      <c r="E23">
+        <v>1692</v>
+      </c>
+      <c r="F23">
+        <v>20</v>
+      </c>
+      <c r="G23">
+        <v>3013</v>
+      </c>
+      <c r="I23">
+        <v>20</v>
+      </c>
+      <c r="J23">
+        <v>790</v>
+      </c>
+      <c r="K23">
+        <v>20</v>
+      </c>
+      <c r="L23">
+        <v>1486</v>
+      </c>
+      <c r="M23">
+        <v>20</v>
+      </c>
+      <c r="N23">
+        <v>2935</v>
+      </c>
+    </row>
+    <row r="24" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>25</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <v>907</v>
+      </c>
+      <c r="E24">
+        <v>1719</v>
+      </c>
+      <c r="F24">
+        <v>25</v>
+      </c>
+      <c r="G24">
+        <v>3020</v>
+      </c>
+      <c r="I24">
+        <v>25</v>
+      </c>
+      <c r="J24">
+        <v>798</v>
+      </c>
+      <c r="K24">
+        <v>25</v>
+      </c>
+      <c r="L24">
+        <v>1422</v>
+      </c>
+      <c r="M24">
+        <v>25</v>
+      </c>
+      <c r="N24">
+        <v>2954</v>
+      </c>
+    </row>
+    <row r="25" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>30</v>
+      </c>
+      <c r="B25">
+        <v>945</v>
+      </c>
+      <c r="E25">
+        <v>1734</v>
+      </c>
+      <c r="F25">
+        <v>30</v>
+      </c>
+      <c r="G25">
+        <v>3026</v>
+      </c>
+      <c r="I25">
+        <v>30</v>
+      </c>
+      <c r="J25">
+        <v>803</v>
+      </c>
+      <c r="K25">
+        <v>30</v>
+      </c>
+      <c r="L25">
+        <v>1547</v>
+      </c>
+      <c r="M25">
+        <v>30</v>
+      </c>
+      <c r="N25">
+        <v>2964</v>
+      </c>
+    </row>
+    <row r="26" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>7</v>
       </c>
@@ -611,16 +1054,61 @@
       <c r="E26" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F26" t="s">
+        <v>3</v>
+      </c>
+      <c r="G26" t="s">
+        <v>6</v>
+      </c>
+      <c r="I26" t="s">
+        <v>7</v>
+      </c>
+      <c r="J26" t="s">
+        <v>6</v>
+      </c>
+      <c r="K26" t="s">
+        <v>1</v>
+      </c>
+      <c r="L26" t="s">
+        <v>6</v>
+      </c>
+      <c r="M26" t="s">
+        <v>3</v>
+      </c>
+      <c r="N26" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2</v>
       </c>
       <c r="B27">
         <v>304</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D27">
+        <v>2</v>
+      </c>
+      <c r="E27">
+        <v>667</v>
+      </c>
+      <c r="F27">
+        <v>2</v>
+      </c>
+      <c r="G27">
+        <v>1597</v>
+      </c>
+      <c r="I27">
+        <v>2</v>
+      </c>
+      <c r="K27">
+        <v>2</v>
+      </c>
+      <c r="M27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>5</v>
       </c>
@@ -633,40 +1121,223 @@
       <c r="E28">
         <v>723</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F28">
+        <v>5</v>
+      </c>
+      <c r="G28">
+        <v>1696</v>
+      </c>
+      <c r="I28">
+        <v>5</v>
+      </c>
+      <c r="J28">
+        <v>158</v>
+      </c>
+      <c r="K28">
+        <v>5</v>
+      </c>
+      <c r="L28">
+        <v>223</v>
+      </c>
+      <c r="M28">
+        <v>5</v>
+      </c>
+      <c r="N28">
+        <v>1391</v>
+      </c>
+    </row>
+    <row r="29" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>10</v>
       </c>
       <c r="B29">
         <v>408</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D29">
+        <v>10</v>
+      </c>
+      <c r="E29">
+        <v>758</v>
+      </c>
+      <c r="F29">
+        <v>10</v>
+      </c>
+      <c r="G29">
+        <v>1806</v>
+      </c>
+      <c r="I29">
+        <v>10</v>
+      </c>
+      <c r="J29">
+        <v>193</v>
+      </c>
+      <c r="K29">
+        <v>10</v>
+      </c>
+      <c r="L29">
+        <v>391</v>
+      </c>
+      <c r="M29">
+        <v>10</v>
+      </c>
+      <c r="N29">
+        <v>1488</v>
+      </c>
+    </row>
+    <row r="30" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>15</v>
       </c>
       <c r="B30">
         <v>428</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D30">
+        <v>15</v>
+      </c>
+      <c r="E30">
+        <v>777</v>
+      </c>
+      <c r="F30">
+        <v>15</v>
+      </c>
+      <c r="G30">
+        <v>1836</v>
+      </c>
+      <c r="I30">
+        <v>15</v>
+      </c>
+      <c r="J30">
+        <v>218</v>
+      </c>
+      <c r="K30">
+        <v>15</v>
+      </c>
+      <c r="L30">
+        <v>353</v>
+      </c>
+      <c r="M30">
+        <v>15</v>
+      </c>
+      <c r="N30">
+        <v>1460</v>
+      </c>
+    </row>
+    <row r="31" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>20</v>
       </c>
       <c r="B31">
+        <v>442</v>
+      </c>
+      <c r="D31">
+        <v>20</v>
+      </c>
+      <c r="E31">
+        <v>782</v>
+      </c>
+      <c r="F31">
+        <v>20</v>
+      </c>
+      <c r="G31">
+        <v>1848</v>
+      </c>
+      <c r="I31">
+        <v>20</v>
+      </c>
+      <c r="J31">
+        <v>238</v>
+      </c>
+      <c r="K31">
+        <v>20</v>
+      </c>
+      <c r="L31">
+        <v>402</v>
+      </c>
+      <c r="M31">
+        <v>20</v>
+      </c>
+      <c r="N31">
+        <v>1568</v>
+      </c>
+    </row>
+    <row r="32" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>25</v>
+      </c>
+      <c r="B32">
         <v>461</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>25</v>
-      </c>
-      <c r="B32">
+      <c r="D32">
+        <v>25</v>
+      </c>
+      <c r="E32">
+        <v>799</v>
+      </c>
+      <c r="F32">
+        <v>25</v>
+      </c>
+      <c r="G32">
+        <v>1864</v>
+      </c>
+      <c r="I32">
+        <v>25</v>
+      </c>
+      <c r="J32">
+        <v>253</v>
+      </c>
+      <c r="K32">
+        <v>25</v>
+      </c>
+      <c r="L32">
+        <v>444</v>
+      </c>
+      <c r="M32">
+        <v>25</v>
+      </c>
+      <c r="N32">
+        <v>1532</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>30</v>
+      </c>
+      <c r="B33">
         <v>494</v>
+      </c>
+      <c r="D33">
+        <v>30</v>
+      </c>
+      <c r="E33">
+        <v>820</v>
+      </c>
+      <c r="F33">
+        <v>30</v>
+      </c>
+      <c r="G33">
+        <v>1875</v>
+      </c>
+      <c r="I33">
+        <v>30</v>
+      </c>
+      <c r="J33">
+        <v>268</v>
+      </c>
+      <c r="K33">
+        <v>30</v>
+      </c>
+      <c r="L33">
+        <v>479</v>
+      </c>
+      <c r="M33">
+        <v>30</v>
+      </c>
+      <c r="N33">
+        <v>1598</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Results.xlsx
+++ b/Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aye Phyu\Documents\Pynotebooks\Online_Social_Network_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2BFEA6C-B56C-449C-82D2-37DDAA2E6B8C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65A3F797-18FC-4C56-82D0-82E0DC9013D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="15780" yWindow="7230" windowWidth="21600" windowHeight="11385" xr2:uid="{AC61FA24-0AD4-4B23-BF72-388EB5421245}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="10">
   <si>
     <t>A-Greedy</t>
   </si>
@@ -422,10 +422,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4707D720-E392-4C31-8174-5040D0C727F8}">
-  <dimension ref="A1:AG33"/>
+  <dimension ref="A1:AG59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+    <sheetView tabSelected="1" topLeftCell="E22" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -889,7 +889,7 @@
         <v>10</v>
       </c>
       <c r="L21">
-        <v>1341</v>
+        <v>1332</v>
       </c>
       <c r="M21">
         <v>10</v>
@@ -924,13 +924,13 @@
         <v>15</v>
       </c>
       <c r="L22">
-        <v>1332</v>
+        <v>1341</v>
       </c>
       <c r="M22">
         <v>15</v>
       </c>
       <c r="N22">
-        <v>2949</v>
+        <v>2935</v>
       </c>
       <c r="AG22">
         <v>3019</v>
@@ -962,13 +962,13 @@
         <v>20</v>
       </c>
       <c r="L23">
-        <v>1486</v>
+        <v>1422</v>
       </c>
       <c r="M23">
         <v>20</v>
       </c>
       <c r="N23">
-        <v>2935</v>
+        <v>2949</v>
       </c>
     </row>
     <row r="24" spans="1:33" x14ac:dyDescent="0.25">
@@ -997,7 +997,7 @@
         <v>25</v>
       </c>
       <c r="L24">
-        <v>1422</v>
+        <v>1486</v>
       </c>
       <c r="M24">
         <v>25</v>
@@ -1175,13 +1175,13 @@
         <v>10</v>
       </c>
       <c r="L29">
-        <v>391</v>
+        <v>353</v>
       </c>
       <c r="M29">
         <v>10</v>
       </c>
       <c r="N29">
-        <v>1488</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="30" spans="1:33" x14ac:dyDescent="0.25">
@@ -1213,13 +1213,13 @@
         <v>15</v>
       </c>
       <c r="L30">
-        <v>353</v>
+        <v>391</v>
       </c>
       <c r="M30">
         <v>15</v>
       </c>
       <c r="N30">
-        <v>1460</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="31" spans="1:33" x14ac:dyDescent="0.25">
@@ -1257,7 +1257,7 @@
         <v>20</v>
       </c>
       <c r="N31">
-        <v>1568</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="32" spans="1:33" x14ac:dyDescent="0.25">
@@ -1295,7 +1295,7 @@
         <v>25</v>
       </c>
       <c r="N32">
-        <v>1532</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
@@ -1336,7 +1336,162 @@
         <v>1598</v>
       </c>
     </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="I35">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="I36" t="s">
+        <v>7</v>
+      </c>
+      <c r="J36" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="I37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="I38">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="I39">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="I40">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="I41">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="I42">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="I43">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="I44" t="s">
+        <v>7</v>
+      </c>
+      <c r="J44" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="I45">
+        <v>2</v>
+      </c>
+      <c r="J45">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="I46">
+        <v>5</v>
+      </c>
+      <c r="J46">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="I47">
+        <v>10</v>
+      </c>
+      <c r="J47">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="I48">
+        <v>15</v>
+      </c>
+      <c r="J48">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="49" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I49">
+        <v>20</v>
+      </c>
+      <c r="J49">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="50" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I50">
+        <v>25</v>
+      </c>
+      <c r="J50">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="51" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I51">
+        <v>30</v>
+      </c>
+      <c r="J51">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="52" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I52" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I53">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I54">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I55">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I56">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="57" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I57">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="58" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I58">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="59" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I59">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="L28:L33">
+    <sortCondition ref="L28"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aye Phyu\Documents\Pynotebooks\Online_Social_Network_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65A3F797-18FC-4C56-82D0-82E0DC9013D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03B833DA-FE88-4C0B-9B5F-9D2EEC54F9C2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="15780" yWindow="7230" windowWidth="21600" windowHeight="11385" xr2:uid="{AC61FA24-0AD4-4B23-BF72-388EB5421245}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="14">
   <si>
     <t>A-Greedy</t>
   </si>
@@ -58,10 +58,22 @@
     <t>PL-DIGG</t>
   </si>
   <si>
-    <t>with 0.1</t>
+    <t>Random</t>
   </si>
   <si>
-    <t>Random</t>
+    <t>fb</t>
+  </si>
+  <si>
+    <t>with 0.01</t>
+  </si>
+  <si>
+    <t>random</t>
+  </si>
+  <si>
+    <t>iterations</t>
+  </si>
+  <si>
+    <t>F2 FB</t>
   </si>
 </sst>
 </file>
@@ -424,8 +436,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4707D720-E392-4C31-8174-5040D0C727F8}">
   <dimension ref="A1:AG59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E22" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I35" sqref="I35"/>
+    <sheetView tabSelected="1" topLeftCell="D31" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E51" sqref="E51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -492,7 +504,7 @@
         <v>4</v>
       </c>
       <c r="H10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I10" t="s">
         <v>7</v>
@@ -766,7 +778,7 @@
         <v>5</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
         <v>1</v>
@@ -1340,10 +1352,13 @@
       <c r="I35">
         <v>0.5</v>
       </c>
+      <c r="L35" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="I36" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J36" t="s">
         <v>4</v>
@@ -1353,139 +1368,268 @@
       <c r="I37">
         <v>2</v>
       </c>
+      <c r="J37">
+        <v>4</v>
+      </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="I38">
         <v>5</v>
       </c>
+      <c r="J38">
+        <v>173</v>
+      </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="I39">
         <v>10</v>
       </c>
+      <c r="J39">
+        <v>175</v>
+      </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D40" t="s">
+        <v>12</v>
+      </c>
+      <c r="E40" t="s">
+        <v>13</v>
+      </c>
       <c r="I40">
         <v>15</v>
       </c>
+      <c r="J40">
+        <v>177</v>
+      </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D41">
+        <v>2</v>
+      </c>
+      <c r="E41">
+        <v>509</v>
+      </c>
       <c r="I41">
         <v>20</v>
       </c>
+      <c r="J41">
+        <v>288</v>
+      </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D42">
+        <v>3</v>
+      </c>
+      <c r="E42">
+        <v>1256</v>
+      </c>
       <c r="I42">
         <v>25</v>
       </c>
+      <c r="J42">
+        <v>313</v>
+      </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D43">
+        <v>4</v>
+      </c>
+      <c r="E43">
+        <v>1380</v>
+      </c>
       <c r="I43">
         <v>30</v>
       </c>
+      <c r="J43">
+        <v>321</v>
+      </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D44">
+        <v>5</v>
+      </c>
+      <c r="E44">
+        <v>1454</v>
+      </c>
       <c r="I44" t="s">
+        <v>9</v>
+      </c>
+      <c r="J44" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D45">
+        <v>6</v>
+      </c>
+      <c r="E45">
+        <v>1681</v>
+      </c>
+      <c r="I45">
+        <v>2</v>
+      </c>
+      <c r="J45">
+        <v>218</v>
+      </c>
+      <c r="K45">
+        <v>1938</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D46">
         <v>7</v>
       </c>
-      <c r="J44" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="I45">
-        <v>2</v>
-      </c>
-      <c r="J45">
-        <v>788</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E46">
+        <v>1682</v>
+      </c>
       <c r="I46">
         <v>5</v>
       </c>
       <c r="J46">
-        <v>792</v>
+        <v>223</v>
+      </c>
+      <c r="K46">
+        <v>1938</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D47">
+        <v>8</v>
+      </c>
+      <c r="E47">
+        <v>1701</v>
+      </c>
       <c r="I47">
         <v>10</v>
       </c>
       <c r="J47">
-        <v>794</v>
+        <v>228</v>
+      </c>
+      <c r="K47">
+        <v>1939</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D48">
+        <v>9</v>
+      </c>
+      <c r="E48">
+        <v>1711</v>
+      </c>
       <c r="I48">
         <v>15</v>
       </c>
       <c r="J48">
-        <v>798</v>
-      </c>
-    </row>
-    <row r="49" spans="9:10" x14ac:dyDescent="0.25">
+        <v>230</v>
+      </c>
+      <c r="K48">
+        <v>1983</v>
+      </c>
+    </row>
+    <row r="49" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D49">
+        <v>10</v>
+      </c>
+      <c r="E49">
+        <v>1737</v>
+      </c>
       <c r="I49">
         <v>20</v>
       </c>
       <c r="J49">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="50" spans="9:10" x14ac:dyDescent="0.25">
+        <v>239</v>
+      </c>
+      <c r="K49">
+        <v>2107</v>
+      </c>
+    </row>
+    <row r="50" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D50">
+        <v>11</v>
+      </c>
+      <c r="E50">
+        <v>1741</v>
+      </c>
       <c r="I50">
         <v>25</v>
       </c>
       <c r="J50">
-        <v>807</v>
-      </c>
-    </row>
-    <row r="51" spans="9:10" x14ac:dyDescent="0.25">
+        <v>244</v>
+      </c>
+      <c r="K50">
+        <v>2152</v>
+      </c>
+    </row>
+    <row r="51" spans="4:11" x14ac:dyDescent="0.25">
       <c r="I51">
         <v>30</v>
       </c>
       <c r="J51">
-        <v>813</v>
-      </c>
-    </row>
-    <row r="52" spans="9:10" x14ac:dyDescent="0.25">
+        <v>251</v>
+      </c>
+      <c r="K51">
+        <v>2190</v>
+      </c>
+    </row>
+    <row r="52" spans="4:11" x14ac:dyDescent="0.25">
       <c r="I52" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="53" spans="9:10" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53" spans="4:11" x14ac:dyDescent="0.25">
       <c r="I53">
         <v>2</v>
       </c>
-    </row>
-    <row r="54" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="J53">
+        <v>1596</v>
+      </c>
+    </row>
+    <row r="54" spans="4:11" x14ac:dyDescent="0.25">
       <c r="I54">
         <v>5</v>
       </c>
-    </row>
-    <row r="55" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="J54">
+        <v>1598</v>
+      </c>
+    </row>
+    <row r="55" spans="4:11" x14ac:dyDescent="0.25">
       <c r="I55">
         <v>10</v>
       </c>
-    </row>
-    <row r="56" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="J55">
+        <v>1599</v>
+      </c>
+    </row>
+    <row r="56" spans="4:11" x14ac:dyDescent="0.25">
       <c r="I56">
         <v>15</v>
       </c>
-    </row>
-    <row r="57" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="J56">
+        <v>1721</v>
+      </c>
+    </row>
+    <row r="57" spans="4:11" x14ac:dyDescent="0.25">
       <c r="I57">
         <v>20</v>
       </c>
-    </row>
-    <row r="58" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="J57">
+        <v>1865</v>
+      </c>
+    </row>
+    <row r="58" spans="4:11" x14ac:dyDescent="0.25">
       <c r="I58">
         <v>25</v>
       </c>
-    </row>
-    <row r="59" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="J58">
+        <v>1871</v>
+      </c>
+    </row>
+    <row r="59" spans="4:11" x14ac:dyDescent="0.25">
       <c r="I59">
         <v>30</v>
+      </c>
+      <c r="J59">
+        <v>1873</v>
       </c>
     </row>
   </sheetData>
